--- a/00.프로젝트 관리/프로젝트 계획서_250120.xlsx
+++ b/00.프로젝트 관리/프로젝트 계획서_250120.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="22620" windowHeight="14220"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="22620" windowHeight="14220" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="프로젝트 전체일정" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="127">
   <si>
     <t>2차 팀프로젝트 일정표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1321,6 +1321,51 @@
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">답변
+1. 위치 함수 실행
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(주의 : 클래스 쓸 떄 대문자 x 나중에 오류발생할 수 있음.) : 대문자 클래스 모두 변경하기 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- "객체" 가 사용하기 좋은 개념.
+- 셋팅해놓은 각 함수들을 객체화 시켜서 기능구현하는 함수에서 객체화 시킨 함수를 호출한다.
+- 실행방지 변수를 하나 만들어서 기능을 구현하는 함수 안에서 변수.includes(범위) 메서드를 사용하여 범위 값이 있는 경우 return할 수 있도록 한다.
+2. 타이핑바 없애기
+-보통 플러그인을 쓰는 경우에는 기능에 대한 설명과 함께 각종 메서드도 확인할 수 있는데, 해당하는 메서드를 적용하는 것이 가장 효율적. 지금은 플러그인에 있는 onComplete를 써서 타이핑이 끝났을 때 경우에 따라 display = "none" 을 적용.
+3. json 파일 데이터 적용하기
+- 우선 json 각 객체들에 타이핑 할때 들어가는 문장 나누는 값을 입력해놓아야 함.
+(홑따옴표 사용 불가)
+- 그 다음 서브페이지 로딩시에 제이슨에 각 키를 가져와서 페이지의 위치에서 키값만 가져오는 location.search.split('=') 를 사용해서 키 값과 연결시킨다. 그럼 해당 키 값의 데이터들이 불러와지는 것임.
+- 그리고 데이터가 입력되어야 하는 자리에서 키.원하는 객체 를 입력하면 동적 코드가 되는 것임.
+4. 서브페이지 구현 방향
+1) 지금 현 시스템을 Vue.js 의 요소들로 구현하기는 종합적으로 어려운 상황임. 따라서 현 프로젝트에서는 Vue.js mounted에 찍어내는 것까지만 하는 것이 좋을 듯 함.
+2) 서브페이지 컨텐츠?
+- 조금 밋밋한 감이 없지않아 있음. 갤러리 서브메뉴에 설명을 추가하면 좋을 것 같고,푸터 전에 다른 행성으로 갈 수 있는 스와이프를 추가구현하면 좋을 듯 함.
+5. 갤러리 서브메뉴 미디어쿼리
+- object-fit : contain 을 쓰고 width:100만 쓰는 방법도 있음(높이값 쓰지 않음). 대신, 화면 크기가 작아지는 것에 따라 양쪽 flex의 gap을 조절해주어야 할 듯.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1332,7 +1377,7 @@
     <numFmt numFmtId="178" formatCode="d"/>
     <numFmt numFmtId="179" formatCode="aaa"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1555,6 +1600,21 @@
       <b/>
       <sz val="16"/>
       <color rgb="FF0000FF"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -2120,6 +2180,51 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2150,15 +2255,6 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2168,40 +2264,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2211,15 +2280,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3278,7 +3338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AA38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
@@ -3301,12 +3361,12 @@
   <sheetData>
     <row r="1" spans="2:27" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:27" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
       <c r="H2" s="20"/>
@@ -3322,7 +3382,7 @@
       </c>
       <c r="F3" s="15">
         <f ca="1">TODAY()</f>
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="21" t="s">
@@ -3333,60 +3393,60 @@
       </c>
     </row>
     <row r="4" spans="2:27" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="61" t="s">
+      <c r="F4" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="61" t="s">
+      <c r="G4" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="73" t="s">
+      <c r="H4" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="76" t="s">
+      <c r="I4" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="71">
+      <c r="J4" s="55">
         <v>45670</v>
       </c>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="72"/>
-      <c r="U4" s="72"/>
-      <c r="V4" s="72"/>
-      <c r="W4" s="72"/>
-      <c r="X4" s="72"/>
-      <c r="Y4" s="72"/>
-      <c r="Z4" s="72"/>
-      <c r="AA4" s="72"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="56"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="56"/>
+      <c r="V4" s="56"/>
+      <c r="W4" s="56"/>
+      <c r="X4" s="56"/>
+      <c r="Y4" s="56"/>
+      <c r="Z4" s="56"/>
+      <c r="AA4" s="56"/>
     </row>
     <row r="5" spans="2:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="56"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="77"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="61"/>
       <c r="J5" s="19">
         <f>J4</f>
         <v>45670</v>
@@ -3461,14 +3521,14 @@
       </c>
     </row>
     <row r="6" spans="2:27" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="57"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="78"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="62"/>
       <c r="J6" s="31">
         <f>J5</f>
         <v>45670</v>
@@ -3554,7 +3614,7 @@
       <c r="F7" s="11">
         <v>45695</v>
       </c>
-      <c r="G7" s="70" t="s">
+      <c r="G7" s="54" t="s">
         <v>76</v>
       </c>
       <c r="H7" s="22">
@@ -3599,7 +3659,7 @@
       <c r="F8" s="11">
         <v>45695</v>
       </c>
-      <c r="G8" s="68"/>
+      <c r="G8" s="52"/>
       <c r="H8" s="22">
         <f t="shared" ref="H8:H12" si="3">IF(F8="","",F8+1-E8)</f>
         <v>26</v>
@@ -3640,7 +3700,7 @@
       <c r="F9" s="11">
         <v>45695</v>
       </c>
-      <c r="G9" s="68"/>
+      <c r="G9" s="52"/>
       <c r="H9" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3681,7 +3741,7 @@
       <c r="F10" s="11">
         <v>45695</v>
       </c>
-      <c r="G10" s="68"/>
+      <c r="G10" s="52"/>
       <c r="H10" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3722,7 +3782,7 @@
       <c r="F11" s="11">
         <v>45695</v>
       </c>
-      <c r="G11" s="68"/>
+      <c r="G11" s="52"/>
       <c r="H11" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3763,7 +3823,7 @@
       <c r="F12" s="11">
         <v>45695</v>
       </c>
-      <c r="G12" s="68"/>
+      <c r="G12" s="52"/>
       <c r="H12" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3804,7 +3864,7 @@
       <c r="F13" s="11">
         <v>45695</v>
       </c>
-      <c r="G13" s="68"/>
+      <c r="G13" s="52"/>
       <c r="H13" s="22">
         <f t="shared" ref="H13:H38" si="4">IF(F13="","",F13+1-E13)</f>
         <v>26</v>
@@ -3845,7 +3905,7 @@
       <c r="F14" s="11">
         <v>45695</v>
       </c>
-      <c r="G14" s="68"/>
+      <c r="G14" s="52"/>
       <c r="H14" s="22">
         <f t="shared" si="4"/>
         <v>26</v>
@@ -3884,7 +3944,7 @@
       <c r="F15" s="11">
         <v>45695</v>
       </c>
-      <c r="G15" s="68"/>
+      <c r="G15" s="52"/>
       <c r="H15" s="22">
         <f t="shared" si="4"/>
         <v>26</v>
@@ -3923,7 +3983,7 @@
       <c r="F16" s="11">
         <v>45674</v>
       </c>
-      <c r="G16" s="67" t="s">
+      <c r="G16" s="51" t="s">
         <v>77</v>
       </c>
       <c r="H16" s="22">
@@ -3966,7 +4026,7 @@
       <c r="F17" s="11">
         <v>45674</v>
       </c>
-      <c r="G17" s="68"/>
+      <c r="G17" s="52"/>
       <c r="H17" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -4007,7 +4067,7 @@
       <c r="F18" s="11">
         <v>45674</v>
       </c>
-      <c r="G18" s="68"/>
+      <c r="G18" s="52"/>
       <c r="H18" s="22">
         <f t="shared" ref="H18:H28" si="5">IF(F18="","",F18+1-E18)</f>
         <v>5</v>
@@ -4046,7 +4106,7 @@
       <c r="F19" s="11">
         <v>45674</v>
       </c>
-      <c r="G19" s="68"/>
+      <c r="G19" s="52"/>
       <c r="H19" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4085,7 +4145,7 @@
       <c r="F20" s="11">
         <v>45674</v>
       </c>
-      <c r="G20" s="68"/>
+      <c r="G20" s="52"/>
       <c r="H20" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4124,7 +4184,7 @@
       <c r="F21" s="11">
         <v>45674</v>
       </c>
-      <c r="G21" s="68"/>
+      <c r="G21" s="52"/>
       <c r="H21" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4163,7 +4223,7 @@
       <c r="F22" s="11">
         <v>45674</v>
       </c>
-      <c r="G22" s="68"/>
+      <c r="G22" s="52"/>
       <c r="H22" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4202,7 +4262,7 @@
       <c r="F23" s="11">
         <v>45674</v>
       </c>
-      <c r="G23" s="68"/>
+      <c r="G23" s="52"/>
       <c r="H23" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4243,7 +4303,7 @@
       <c r="F24" s="11">
         <v>45674</v>
       </c>
-      <c r="G24" s="68"/>
+      <c r="G24" s="52"/>
       <c r="H24" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4284,7 +4344,7 @@
       <c r="F25" s="11">
         <v>45674</v>
       </c>
-      <c r="G25" s="68"/>
+      <c r="G25" s="52"/>
       <c r="H25" s="22">
         <f t="shared" ref="H25" si="6">IF(F25="","",F25+1-E25)</f>
         <v>5</v>
@@ -4325,7 +4385,7 @@
       <c r="F26" s="11">
         <v>45674</v>
       </c>
-      <c r="G26" s="68"/>
+      <c r="G26" s="52"/>
       <c r="H26" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4366,7 +4426,7 @@
       <c r="F27" s="11">
         <v>45674</v>
       </c>
-      <c r="G27" s="68"/>
+      <c r="G27" s="52"/>
       <c r="H27" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4407,7 +4467,7 @@
       <c r="F28" s="11">
         <v>45678</v>
       </c>
-      <c r="G28" s="68"/>
+      <c r="G28" s="52"/>
       <c r="H28" s="22">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -4446,7 +4506,7 @@
       <c r="F29" s="11">
         <v>45678</v>
       </c>
-      <c r="G29" s="68"/>
+      <c r="G29" s="52"/>
       <c r="H29" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -4487,7 +4547,7 @@
       <c r="F30" s="11">
         <v>45678</v>
       </c>
-      <c r="G30" s="68"/>
+      <c r="G30" s="52"/>
       <c r="H30" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -4528,7 +4588,7 @@
       <c r="F31" s="11">
         <v>45680</v>
       </c>
-      <c r="G31" s="68"/>
+      <c r="G31" s="52"/>
       <c r="H31" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -4569,7 +4629,7 @@
       <c r="F32" s="11">
         <v>45680</v>
       </c>
-      <c r="G32" s="68"/>
+      <c r="G32" s="52"/>
       <c r="H32" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -4610,7 +4670,7 @@
       <c r="F33" s="11">
         <v>45684</v>
       </c>
-      <c r="G33" s="68"/>
+      <c r="G33" s="52"/>
       <c r="H33" s="22">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -4651,7 +4711,7 @@
       <c r="F34" s="11">
         <v>45684</v>
       </c>
-      <c r="G34" s="69"/>
+      <c r="G34" s="53"/>
       <c r="H34" s="22">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -4838,18 +4898,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="D4:D6"/>
     <mergeCell ref="G16:G34"/>
     <mergeCell ref="G7:G15"/>
     <mergeCell ref="J4:AA4"/>
     <mergeCell ref="H4:H6"/>
     <mergeCell ref="I4:I6"/>
     <mergeCell ref="G4:G6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="D4:D6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J5:AA38">
@@ -5211,9 +5271,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A14" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M8" sqref="M8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5234,16 +5294,16 @@
   <sheetData>
     <row r="1" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:24" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
     </row>
     <row r="3" spans="1:24" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="14"/>
@@ -5253,7 +5313,7 @@
       </c>
       <c r="G3" s="15">
         <f ca="1">TODAY()</f>
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="H3" s="21" t="s">
         <v>3</v>
@@ -5266,126 +5326,126 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="17.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="79"/>
-      <c r="C4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="R4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="S4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="T4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="U4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="V4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="W4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="X4" s="82" t="s">
+      <c r="B4" s="82"/>
+      <c r="C4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="T4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="U4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="V4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="W4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="X4" s="79" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="80"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="77"/>
-      <c r="T5" s="77"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="77"/>
-      <c r="X5" s="83"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="61"/>
+      <c r="T5" s="61"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
+      <c r="W5" s="61"/>
+      <c r="X5" s="80"/>
     </row>
     <row r="6" spans="1:24" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="78"/>
-      <c r="N6" s="78"/>
-      <c r="O6" s="78"/>
-      <c r="P6" s="78"/>
-      <c r="Q6" s="78"/>
-      <c r="R6" s="78"/>
-      <c r="S6" s="78"/>
-      <c r="T6" s="78"/>
-      <c r="U6" s="78"/>
-      <c r="V6" s="78"/>
-      <c r="W6" s="78"/>
-      <c r="X6" s="84"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="62"/>
+      <c r="T6" s="62"/>
+      <c r="U6" s="62"/>
+      <c r="V6" s="62"/>
+      <c r="W6" s="62"/>
+      <c r="X6" s="81"/>
     </row>
     <row r="7" spans="1:24" ht="27" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
@@ -5559,123 +5619,123 @@
       <c r="X11" s="40"/>
     </row>
     <row r="12" spans="1:24" s="12" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="79"/>
-      <c r="C12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="N12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="O12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="P12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="R12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="S12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="T12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="U12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="V12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="W12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="X12" s="82" t="s">
+      <c r="B12" s="82"/>
+      <c r="C12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="P12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="R12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="S12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="T12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="U12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="V12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="W12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="X12" s="79" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:24" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="80"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="77"/>
-      <c r="L13" s="77"/>
-      <c r="M13" s="77"/>
-      <c r="N13" s="77"/>
-      <c r="O13" s="77"/>
-      <c r="P13" s="77"/>
-      <c r="Q13" s="77"/>
-      <c r="R13" s="77"/>
-      <c r="S13" s="77"/>
-      <c r="T13" s="77"/>
-      <c r="U13" s="77"/>
-      <c r="V13" s="77"/>
-      <c r="W13" s="77"/>
-      <c r="X13" s="83"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="61"/>
+      <c r="T13" s="61"/>
+      <c r="U13" s="61"/>
+      <c r="V13" s="61"/>
+      <c r="W13" s="61"/>
+      <c r="X13" s="80"/>
     </row>
     <row r="14" spans="1:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="81"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="78"/>
-      <c r="L14" s="78"/>
-      <c r="M14" s="78"/>
-      <c r="N14" s="78"/>
-      <c r="O14" s="78"/>
-      <c r="P14" s="78"/>
-      <c r="Q14" s="78"/>
-      <c r="R14" s="78"/>
-      <c r="S14" s="78"/>
-      <c r="T14" s="78"/>
-      <c r="U14" s="78"/>
-      <c r="V14" s="78"/>
-      <c r="W14" s="78"/>
-      <c r="X14" s="84"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="62"/>
+      <c r="S14" s="62"/>
+      <c r="T14" s="62"/>
+      <c r="U14" s="62"/>
+      <c r="V14" s="62"/>
+      <c r="W14" s="62"/>
+      <c r="X14" s="81"/>
     </row>
     <row r="15" spans="1:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B15" s="25" t="s">
@@ -5771,7 +5831,9 @@
       <c r="K16" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="L16" s="24"/>
+      <c r="L16" s="24" t="s">
+        <v>126</v>
+      </c>
       <c r="M16" s="24"/>
       <c r="N16" s="24"/>
       <c r="O16" s="24"/>
@@ -5789,123 +5851,123 @@
       <c r="X17" s="40"/>
     </row>
     <row r="18" spans="2:24" s="12" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="79"/>
-      <c r="C18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="J18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="M18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="N18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="O18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="P18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="R18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="S18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="T18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="U18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="V18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="W18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="X18" s="82" t="s">
+      <c r="B18" s="82"/>
+      <c r="C18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="N18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="O18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="P18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="R18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="S18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="T18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="U18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="V18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="W18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="X18" s="79" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="80"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="77"/>
-      <c r="N19" s="77"/>
-      <c r="O19" s="77"/>
-      <c r="P19" s="77"/>
-      <c r="Q19" s="77"/>
-      <c r="R19" s="77"/>
-      <c r="S19" s="77"/>
-      <c r="T19" s="77"/>
-      <c r="U19" s="77"/>
-      <c r="V19" s="77"/>
-      <c r="W19" s="77"/>
-      <c r="X19" s="83"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="61"/>
+      <c r="P19" s="61"/>
+      <c r="Q19" s="61"/>
+      <c r="R19" s="61"/>
+      <c r="S19" s="61"/>
+      <c r="T19" s="61"/>
+      <c r="U19" s="61"/>
+      <c r="V19" s="61"/>
+      <c r="W19" s="61"/>
+      <c r="X19" s="80"/>
     </row>
     <row r="20" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="81"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="78"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="78"/>
-      <c r="N20" s="78"/>
-      <c r="O20" s="78"/>
-      <c r="P20" s="78"/>
-      <c r="Q20" s="78"/>
-      <c r="R20" s="78"/>
-      <c r="S20" s="78"/>
-      <c r="T20" s="78"/>
-      <c r="U20" s="78"/>
-      <c r="V20" s="78"/>
-      <c r="W20" s="78"/>
-      <c r="X20" s="84"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="62"/>
+      <c r="P20" s="62"/>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="62"/>
+      <c r="S20" s="62"/>
+      <c r="T20" s="62"/>
+      <c r="U20" s="62"/>
+      <c r="V20" s="62"/>
+      <c r="W20" s="62"/>
+      <c r="X20" s="81"/>
     </row>
     <row r="21" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B21" s="25" t="s">
@@ -6056,123 +6118,123 @@
       <c r="X24" s="40"/>
     </row>
     <row r="25" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="79"/>
-      <c r="C25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="J25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="K25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="L25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="M25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="N25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="O25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="P25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="R25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="S25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="T25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="U25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="V25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="W25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="X25" s="82" t="s">
+      <c r="B25" s="82"/>
+      <c r="C25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="N25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="O25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="P25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="R25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="S25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="T25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="U25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="V25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="W25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="X25" s="79" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="2:24" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="80"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="77"/>
-      <c r="L26" s="77"/>
-      <c r="M26" s="77"/>
-      <c r="N26" s="77"/>
-      <c r="O26" s="77"/>
-      <c r="P26" s="77"/>
-      <c r="Q26" s="77"/>
-      <c r="R26" s="77"/>
-      <c r="S26" s="77"/>
-      <c r="T26" s="77"/>
-      <c r="U26" s="77"/>
-      <c r="V26" s="77"/>
-      <c r="W26" s="77"/>
-      <c r="X26" s="83"/>
+      <c r="B26" s="83"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="61"/>
+      <c r="N26" s="61"/>
+      <c r="O26" s="61"/>
+      <c r="P26" s="61"/>
+      <c r="Q26" s="61"/>
+      <c r="R26" s="61"/>
+      <c r="S26" s="61"/>
+      <c r="T26" s="61"/>
+      <c r="U26" s="61"/>
+      <c r="V26" s="61"/>
+      <c r="W26" s="61"/>
+      <c r="X26" s="80"/>
     </row>
     <row r="27" spans="2:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="81"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="78"/>
-      <c r="J27" s="78"/>
-      <c r="K27" s="78"/>
-      <c r="L27" s="78"/>
-      <c r="M27" s="78"/>
-      <c r="N27" s="78"/>
-      <c r="O27" s="78"/>
-      <c r="P27" s="78"/>
-      <c r="Q27" s="78"/>
-      <c r="R27" s="78"/>
-      <c r="S27" s="78"/>
-      <c r="T27" s="78"/>
-      <c r="U27" s="78"/>
-      <c r="V27" s="78"/>
-      <c r="W27" s="78"/>
-      <c r="X27" s="84"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="62"/>
+      <c r="P27" s="62"/>
+      <c r="Q27" s="62"/>
+      <c r="R27" s="62"/>
+      <c r="S27" s="62"/>
+      <c r="T27" s="62"/>
+      <c r="U27" s="62"/>
+      <c r="V27" s="62"/>
+      <c r="W27" s="62"/>
+      <c r="X27" s="81"/>
     </row>
     <row r="28" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B28" s="25" t="s">
@@ -6285,83 +6347,6 @@
     <row r="32" spans="2:24" ht="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="W4:W6"/>
-    <mergeCell ref="W12:W14"/>
-    <mergeCell ref="W18:W20"/>
-    <mergeCell ref="W25:W27"/>
-    <mergeCell ref="X4:X6"/>
-    <mergeCell ref="X12:X14"/>
-    <mergeCell ref="X18:X20"/>
-    <mergeCell ref="X25:X27"/>
-    <mergeCell ref="U4:U6"/>
-    <mergeCell ref="U12:U14"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="U25:U27"/>
-    <mergeCell ref="V4:V6"/>
-    <mergeCell ref="V12:V14"/>
-    <mergeCell ref="V18:V20"/>
-    <mergeCell ref="V25:V27"/>
-    <mergeCell ref="S4:S6"/>
-    <mergeCell ref="S12:S14"/>
-    <mergeCell ref="S18:S20"/>
-    <mergeCell ref="S25:S27"/>
-    <mergeCell ref="T4:T6"/>
-    <mergeCell ref="T12:T14"/>
-    <mergeCell ref="T18:T20"/>
-    <mergeCell ref="T25:T27"/>
-    <mergeCell ref="Q4:Q6"/>
-    <mergeCell ref="Q12:Q14"/>
-    <mergeCell ref="Q18:Q20"/>
-    <mergeCell ref="Q25:Q27"/>
-    <mergeCell ref="R4:R6"/>
-    <mergeCell ref="R12:R14"/>
-    <mergeCell ref="R18:R20"/>
-    <mergeCell ref="R25:R27"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="O25:O27"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="P12:P14"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="P25:P27"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="M25:M27"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N12:N14"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="N25:N27"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="L25:L27"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="B12:B14"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C12:C14"/>
@@ -6378,6 +6363,83 @@
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="G4:G6"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="L25:L27"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="M25:M27"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N12:N14"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="N25:N27"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="O25:O27"/>
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="P25:P27"/>
+    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="Q12:Q14"/>
+    <mergeCell ref="Q18:Q20"/>
+    <mergeCell ref="Q25:Q27"/>
+    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="R12:R14"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="R25:R27"/>
+    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="S12:S14"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="S25:S27"/>
+    <mergeCell ref="T4:T6"/>
+    <mergeCell ref="T12:T14"/>
+    <mergeCell ref="T18:T20"/>
+    <mergeCell ref="T25:T27"/>
+    <mergeCell ref="U4:U6"/>
+    <mergeCell ref="U12:U14"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="U25:U27"/>
+    <mergeCell ref="V4:V6"/>
+    <mergeCell ref="V12:V14"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="V25:V27"/>
+    <mergeCell ref="W4:W6"/>
+    <mergeCell ref="W12:W14"/>
+    <mergeCell ref="W18:W20"/>
+    <mergeCell ref="W25:W27"/>
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="X12:X14"/>
+    <mergeCell ref="X18:X20"/>
+    <mergeCell ref="X25:X27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00.프로젝트 관리/프로젝트 계획서_250120.xlsx
+++ b/00.프로젝트 관리/프로젝트 계획서_250120.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="128">
   <si>
     <t>2차 팀프로젝트 일정표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1073,10 +1073,219 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
+    <t>1. 타이핑 애니메이션 예시 적용 중 
+-&gt; 한 페이지 모두 적용 후에 나머지 페이지는 데이터를 뿌려서 적용시킬 수 있도록 해보자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>1. 적용해주신 타이핑 애니메이션 다른 섹션에도 적용시키기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> ( Mercury만 먼저 적용)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>2. 스크롤 액션 수업내용 토대로 적용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>3. 각 행성에 대한 정보 정리해서 제이슨 파일로 만들기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">(어떤 형식으로 만들지 잘 생각해야할 듯)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+4. 갤러리 서브메뉴 미디어 쿼리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mercury 에 잘 적용되어야 다른 페이지에 적용시킬 수 있음. 따라서 다음 주까지는 Mercury 기능 구현에 집중하는 것으로.</t>
+  </si>
+  <si>
+    <t>1. 타이핑 플러그인 적용 후 위치에 따라 실행될 수 있도록 적용 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>1. 타이핑 애니메이션 mercury 적용시킨 후 위치값에 따라 실행될 수 있도록 적용+ 위치값에 따라 행성 이동하기 적용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>2. 각 행성정보 Json파일로 만들기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>3. 갤러리 서브메뉴 미디어 쿼리</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 질문 및 피드백 진행 후 정리
+2. 갤러리 서브메뉴 미디어 쿼리
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문
+1. 타이핑 스크롤 애니메이션 실행 순서
+2. json 파일 만들었는데 그 다음에는 무엇을 해야할지 잘 모르겠음. (이번에 배운 스토어와 라우터를 사용하고 싶음.)
+3. 각 섹션 타이틀 타이핑 애니메이션 후 타이핑바 제거하는 방법?
+4. 갤러리 서브메뉴 미디어쿼리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="2" tint="-0.499984740745262"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">질문 
 1. 타이핑 플러그인 적용하는 방법
 2. 갤러리 CSS에 대한 조언(우주와 관련된 효과)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -1097,8 +1306,27 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">질문
-1. 이미지 데이터를 읽어와서 html 태그로 찍는 방법
+      <rPr>
+        <sz val="14"/>
+        <color theme="2" tint="-0.499984740745262"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>질문
+1. 이미지 데이터를 읽어와서 html 태그로 찍는 방법</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -1133,195 +1361,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 타이핑 애니메이션 예시 적용 중 
--&gt; 한 페이지 모두 적용 후에 나머지 페이지는 데이터를 뿌려서 적용시킬 수 있도록 해보자.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>1. 적용해주신 타이핑 애니메이션 다른 섹션에도 적용시키기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve"> ( Mercury만 먼저 적용)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>2. 스크롤 액션 수업내용 토대로 적용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>3. 각 행성에 대한 정보 정리해서 제이슨 파일로 만들기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve">(어떤 형식으로 만들지 잘 생각해야할 듯)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve">
-4. 갤러리 서브메뉴 미디어 쿼리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mercury 에 잘 적용되어야 다른 페이지에 적용시킬 수 있음. 따라서 다음 주까지는 Mercury 기능 구현에 집중하는 것으로.</t>
-  </si>
-  <si>
-    <t>질문
-1. 타이핑 스크롤 애니메이션 실행 순서
-2. json 파일 만들었는데 그 다음에는 무엇을 해야할지 잘 모르겠음. (이번에 배운 스토어와 라우터를 사용하고 싶음.)
-3. 각 섹션 타이틀 타이핑 애니메이션 후 타이핑바 제거하는 방법?
-4. 갤러리 서브메뉴 미디어쿼리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 타이핑 플러그인 적용 후 위치에 따라 실행될 수 있도록 적용 중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>1. 타이핑 애니메이션 mercury 적용시킨 후 위치값에 따라 실행될 수 있도록 적용+ 위치값에 따라 행성 이동하기 적용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>2. 각 행성정보 Json파일로 만들기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>3. 갤러리 서브메뉴 미디어 쿼리</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 질문 및 피드백 진행 후 정리
-2. 갤러리 서브메뉴 미디어 쿼리
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">답변
 1. 위치 함수 실행
@@ -1329,6 +1368,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="15"/>
         <color rgb="FFFF0000"/>
         <rFont val="맑은 고딕"/>
@@ -1340,6 +1380,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="15"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
@@ -1357,13 +1398,42 @@
 (홑따옴표 사용 불가)
 - 그 다음 서브페이지 로딩시에 제이슨에 각 키를 가져와서 페이지의 위치에서 키값만 가져오는 location.search.split('=') 를 사용해서 키 값과 연결시킨다. 그럼 해당 키 값의 데이터들이 불러와지는 것임.
 - 그리고 데이터가 입력되어야 하는 자리에서 키.원하는 객체 를 입력하면 동적 코드가 되는 것임.
-4. 서브페이지 구현 방향
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4. 서브페이지 구현 방향
 1) 지금 현 시스템을 Vue.js 의 요소들로 구현하기는 종합적으로 어려운 상황임. 따라서 현 프로젝트에서는 Vue.js mounted에 찍어내는 것까지만 하는 것이 좋을 듯 함.
 2) 서브페이지 컨텐츠?
-- 조금 밋밋한 감이 없지않아 있음. 갤러리 서브메뉴에 설명을 추가하면 좋을 것 같고,푸터 전에 다른 행성으로 갈 수 있는 스와이프를 추가구현하면 좋을 듯 함.
+- 조금 밋밋한 감이 없지않아 있음. 갤러리 서브메뉴에 설명을 추가하면 좋을 것 같고,푸터 전에 다른 행성으로 갈 수 있는 스와이프를 추가구현하면 좋을 듯 함.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 5. 갤러리 서브메뉴 미디어쿼리
 - object-fit : contain 을 쓰고 width:100만 쓰는 방법도 있음(높이값 쓰지 않음). 대신, 화면 크기가 작아지는 것에 따라 양쪽 flex의 gap을 조절해주어야 할 듯.</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 피드백 사항 반영
+- html,scss,js 대문자 클래스 소문자로 변경
+- json 데이터 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1377,7 +1447,7 @@
     <numFmt numFmtId="178" formatCode="d"/>
     <numFmt numFmtId="179" formatCode="aaa"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1580,14 +1650,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="16"/>
       <color theme="1"/>
@@ -1606,6 +1668,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
@@ -1614,7 +1686,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="15"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FF0000FF"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -2026,7 +2116,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2171,15 +2261,60 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2216,52 +2351,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2273,14 +2369,11 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3361,12 +3454,12 @@
   <sheetData>
     <row r="1" spans="2:27" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:27" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
       <c r="H2" s="20"/>
@@ -3393,60 +3486,60 @@
       </c>
     </row>
     <row r="4" spans="2:27" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="73" t="s">
+      <c r="E4" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="63" t="s">
+      <c r="F4" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="63" t="s">
+      <c r="G4" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="57" t="s">
+      <c r="H4" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="60" t="s">
+      <c r="I4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="55">
+      <c r="J4" s="70">
         <v>45670</v>
       </c>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="56"/>
-      <c r="T4" s="56"/>
-      <c r="U4" s="56"/>
-      <c r="V4" s="56"/>
-      <c r="W4" s="56"/>
-      <c r="X4" s="56"/>
-      <c r="Y4" s="56"/>
-      <c r="Z4" s="56"/>
-      <c r="AA4" s="56"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="71"/>
+      <c r="S4" s="71"/>
+      <c r="T4" s="71"/>
+      <c r="U4" s="71"/>
+      <c r="V4" s="71"/>
+      <c r="W4" s="71"/>
+      <c r="X4" s="71"/>
+      <c r="Y4" s="71"/>
+      <c r="Z4" s="71"/>
+      <c r="AA4" s="71"/>
     </row>
     <row r="5" spans="2:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="71"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="61"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="76"/>
       <c r="J5" s="19">
         <f>J4</f>
         <v>45670</v>
@@ -3521,14 +3614,14 @@
       </c>
     </row>
     <row r="6" spans="2:27" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="72"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="62"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="77"/>
       <c r="J6" s="31">
         <f>J5</f>
         <v>45670</v>
@@ -3614,7 +3707,7 @@
       <c r="F7" s="11">
         <v>45695</v>
       </c>
-      <c r="G7" s="54" t="s">
+      <c r="G7" s="69" t="s">
         <v>76</v>
       </c>
       <c r="H7" s="22">
@@ -3659,7 +3752,7 @@
       <c r="F8" s="11">
         <v>45695</v>
       </c>
-      <c r="G8" s="52"/>
+      <c r="G8" s="67"/>
       <c r="H8" s="22">
         <f t="shared" ref="H8:H12" si="3">IF(F8="","",F8+1-E8)</f>
         <v>26</v>
@@ -3700,7 +3793,7 @@
       <c r="F9" s="11">
         <v>45695</v>
       </c>
-      <c r="G9" s="52"/>
+      <c r="G9" s="67"/>
       <c r="H9" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3741,7 +3834,7 @@
       <c r="F10" s="11">
         <v>45695</v>
       </c>
-      <c r="G10" s="52"/>
+      <c r="G10" s="67"/>
       <c r="H10" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3782,7 +3875,7 @@
       <c r="F11" s="11">
         <v>45695</v>
       </c>
-      <c r="G11" s="52"/>
+      <c r="G11" s="67"/>
       <c r="H11" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3823,7 +3916,7 @@
       <c r="F12" s="11">
         <v>45695</v>
       </c>
-      <c r="G12" s="52"/>
+      <c r="G12" s="67"/>
       <c r="H12" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3864,7 +3957,7 @@
       <c r="F13" s="11">
         <v>45695</v>
       </c>
-      <c r="G13" s="52"/>
+      <c r="G13" s="67"/>
       <c r="H13" s="22">
         <f t="shared" ref="H13:H38" si="4">IF(F13="","",F13+1-E13)</f>
         <v>26</v>
@@ -3905,7 +3998,7 @@
       <c r="F14" s="11">
         <v>45695</v>
       </c>
-      <c r="G14" s="52"/>
+      <c r="G14" s="67"/>
       <c r="H14" s="22">
         <f t="shared" si="4"/>
         <v>26</v>
@@ -3944,7 +4037,7 @@
       <c r="F15" s="11">
         <v>45695</v>
       </c>
-      <c r="G15" s="52"/>
+      <c r="G15" s="67"/>
       <c r="H15" s="22">
         <f t="shared" si="4"/>
         <v>26</v>
@@ -3983,7 +4076,7 @@
       <c r="F16" s="11">
         <v>45674</v>
       </c>
-      <c r="G16" s="51" t="s">
+      <c r="G16" s="66" t="s">
         <v>77</v>
       </c>
       <c r="H16" s="22">
@@ -4026,7 +4119,7 @@
       <c r="F17" s="11">
         <v>45674</v>
       </c>
-      <c r="G17" s="52"/>
+      <c r="G17" s="67"/>
       <c r="H17" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -4067,7 +4160,7 @@
       <c r="F18" s="11">
         <v>45674</v>
       </c>
-      <c r="G18" s="52"/>
+      <c r="G18" s="67"/>
       <c r="H18" s="22">
         <f t="shared" ref="H18:H28" si="5">IF(F18="","",F18+1-E18)</f>
         <v>5</v>
@@ -4106,7 +4199,7 @@
       <c r="F19" s="11">
         <v>45674</v>
       </c>
-      <c r="G19" s="52"/>
+      <c r="G19" s="67"/>
       <c r="H19" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4145,7 +4238,7 @@
       <c r="F20" s="11">
         <v>45674</v>
       </c>
-      <c r="G20" s="52"/>
+      <c r="G20" s="67"/>
       <c r="H20" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4184,7 +4277,7 @@
       <c r="F21" s="11">
         <v>45674</v>
       </c>
-      <c r="G21" s="52"/>
+      <c r="G21" s="67"/>
       <c r="H21" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4223,7 +4316,7 @@
       <c r="F22" s="11">
         <v>45674</v>
       </c>
-      <c r="G22" s="52"/>
+      <c r="G22" s="67"/>
       <c r="H22" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4262,7 +4355,7 @@
       <c r="F23" s="11">
         <v>45674</v>
       </c>
-      <c r="G23" s="52"/>
+      <c r="G23" s="67"/>
       <c r="H23" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4303,7 +4396,7 @@
       <c r="F24" s="11">
         <v>45674</v>
       </c>
-      <c r="G24" s="52"/>
+      <c r="G24" s="67"/>
       <c r="H24" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4344,7 +4437,7 @@
       <c r="F25" s="11">
         <v>45674</v>
       </c>
-      <c r="G25" s="52"/>
+      <c r="G25" s="67"/>
       <c r="H25" s="22">
         <f t="shared" ref="H25" si="6">IF(F25="","",F25+1-E25)</f>
         <v>5</v>
@@ -4385,7 +4478,7 @@
       <c r="F26" s="11">
         <v>45674</v>
       </c>
-      <c r="G26" s="52"/>
+      <c r="G26" s="67"/>
       <c r="H26" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4426,7 +4519,7 @@
       <c r="F27" s="11">
         <v>45674</v>
       </c>
-      <c r="G27" s="52"/>
+      <c r="G27" s="67"/>
       <c r="H27" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4467,7 +4560,7 @@
       <c r="F28" s="11">
         <v>45678</v>
       </c>
-      <c r="G28" s="52"/>
+      <c r="G28" s="67"/>
       <c r="H28" s="22">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -4506,7 +4599,7 @@
       <c r="F29" s="11">
         <v>45678</v>
       </c>
-      <c r="G29" s="52"/>
+      <c r="G29" s="67"/>
       <c r="H29" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -4547,7 +4640,7 @@
       <c r="F30" s="11">
         <v>45678</v>
       </c>
-      <c r="G30" s="52"/>
+      <c r="G30" s="67"/>
       <c r="H30" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -4588,7 +4681,7 @@
       <c r="F31" s="11">
         <v>45680</v>
       </c>
-      <c r="G31" s="52"/>
+      <c r="G31" s="67"/>
       <c r="H31" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -4629,7 +4722,7 @@
       <c r="F32" s="11">
         <v>45680</v>
       </c>
-      <c r="G32" s="52"/>
+      <c r="G32" s="67"/>
       <c r="H32" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -4670,7 +4763,7 @@
       <c r="F33" s="11">
         <v>45684</v>
       </c>
-      <c r="G33" s="52"/>
+      <c r="G33" s="67"/>
       <c r="H33" s="22">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -4711,7 +4804,7 @@
       <c r="F34" s="11">
         <v>45684</v>
       </c>
-      <c r="G34" s="53"/>
+      <c r="G34" s="68"/>
       <c r="H34" s="22">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -4898,18 +4991,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G16:G34"/>
+    <mergeCell ref="G7:G15"/>
+    <mergeCell ref="J4:AA4"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="G4:G6"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="D4:D6"/>
-    <mergeCell ref="G16:G34"/>
-    <mergeCell ref="G7:G15"/>
-    <mergeCell ref="J4:AA4"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="G4:G6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J5:AA38">
@@ -5271,9 +5364,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M16" sqref="M16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5287,23 +5380,23 @@
     <col min="8" max="8" width="53.5" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="53.375" customWidth="1"/>
     <col min="10" max="11" width="48.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="48.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="50.75" customWidth="1"/>
     <col min="13" max="23" width="27.125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="27.125" style="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:24" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
     </row>
     <row r="3" spans="1:24" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="14"/>
@@ -5326,126 +5419,126 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="17.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="82"/>
-      <c r="C4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="R4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="S4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="T4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="U4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="V4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="W4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="X4" s="79" t="s">
+      <c r="B4" s="78"/>
+      <c r="C4" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="T4" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="U4" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="V4" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="W4" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="X4" s="81" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="83"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="61"/>
-      <c r="T5" s="61"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
-      <c r="W5" s="61"/>
-      <c r="X5" s="80"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
+      <c r="W5" s="76"/>
+      <c r="X5" s="82"/>
     </row>
     <row r="6" spans="1:24" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="62"/>
-      <c r="T6" s="62"/>
-      <c r="U6" s="62"/>
-      <c r="V6" s="62"/>
-      <c r="W6" s="62"/>
-      <c r="X6" s="81"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="77"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="77"/>
+      <c r="Q6" s="77"/>
+      <c r="R6" s="77"/>
+      <c r="S6" s="77"/>
+      <c r="T6" s="77"/>
+      <c r="U6" s="77"/>
+      <c r="V6" s="77"/>
+      <c r="W6" s="77"/>
+      <c r="X6" s="83"/>
     </row>
     <row r="7" spans="1:24" ht="27" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
@@ -5543,16 +5636,18 @@
       <c r="I8" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="J8" s="50" t="s">
+      <c r="J8" s="49" t="s">
         <v>115</v>
       </c>
       <c r="K8" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L8" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="M8" s="24"/>
+        <v>120</v>
+      </c>
+      <c r="M8" s="24" t="s">
+        <v>127</v>
+      </c>
       <c r="N8" s="24"/>
       <c r="O8" s="24"/>
       <c r="P8" s="24"/>
@@ -5619,123 +5714,123 @@
       <c r="X11" s="40"/>
     </row>
     <row r="12" spans="1:24" s="12" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="82"/>
-      <c r="C12" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="N12" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="O12" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="P12" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q12" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="R12" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="S12" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="T12" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="U12" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="V12" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="W12" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="X12" s="79" t="s">
+      <c r="B12" s="78"/>
+      <c r="C12" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="P12" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q12" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="R12" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="S12" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="T12" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="U12" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="V12" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="W12" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="X12" s="81" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:24" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="83"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="61"/>
-      <c r="S13" s="61"/>
-      <c r="T13" s="61"/>
-      <c r="U13" s="61"/>
-      <c r="V13" s="61"/>
-      <c r="W13" s="61"/>
-      <c r="X13" s="80"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="76"/>
+      <c r="O13" s="76"/>
+      <c r="P13" s="76"/>
+      <c r="Q13" s="76"/>
+      <c r="R13" s="76"/>
+      <c r="S13" s="76"/>
+      <c r="T13" s="76"/>
+      <c r="U13" s="76"/>
+      <c r="V13" s="76"/>
+      <c r="W13" s="76"/>
+      <c r="X13" s="82"/>
     </row>
     <row r="14" spans="1:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="84"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="62"/>
-      <c r="R14" s="62"/>
-      <c r="S14" s="62"/>
-      <c r="T14" s="62"/>
-      <c r="U14" s="62"/>
-      <c r="V14" s="62"/>
-      <c r="W14" s="62"/>
-      <c r="X14" s="81"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="77"/>
+      <c r="N14" s="77"/>
+      <c r="O14" s="77"/>
+      <c r="P14" s="77"/>
+      <c r="Q14" s="77"/>
+      <c r="R14" s="77"/>
+      <c r="S14" s="77"/>
+      <c r="T14" s="77"/>
+      <c r="U14" s="77"/>
+      <c r="V14" s="77"/>
+      <c r="W14" s="77"/>
+      <c r="X14" s="83"/>
     </row>
     <row r="15" spans="1:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B15" s="25" t="s">
@@ -5816,22 +5911,22 @@
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="48" t="s">
+      <c r="G16" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="H16" s="49" t="s">
+      <c r="H16" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="I16" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="J16" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="K16" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="L16" s="24" t="s">
+      <c r="I16" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="J16" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="K16" s="85" t="s">
+        <v>123</v>
+      </c>
+      <c r="L16" s="84" t="s">
         <v>126</v>
       </c>
       <c r="M16" s="24"/>
@@ -5851,123 +5946,123 @@
       <c r="X17" s="40"/>
     </row>
     <row r="18" spans="2:24" s="12" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="82"/>
-      <c r="C18" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="J18" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="M18" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="N18" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="O18" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="P18" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q18" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="R18" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="S18" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="T18" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="U18" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="V18" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="W18" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="X18" s="79" t="s">
+      <c r="B18" s="78"/>
+      <c r="C18" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="N18" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="O18" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="P18" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q18" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="R18" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="S18" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="T18" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="U18" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="V18" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="W18" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="X18" s="81" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="83"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="61"/>
-      <c r="P19" s="61"/>
-      <c r="Q19" s="61"/>
-      <c r="R19" s="61"/>
-      <c r="S19" s="61"/>
-      <c r="T19" s="61"/>
-      <c r="U19" s="61"/>
-      <c r="V19" s="61"/>
-      <c r="W19" s="61"/>
-      <c r="X19" s="80"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="76"/>
+      <c r="L19" s="76"/>
+      <c r="M19" s="76"/>
+      <c r="N19" s="76"/>
+      <c r="O19" s="76"/>
+      <c r="P19" s="76"/>
+      <c r="Q19" s="76"/>
+      <c r="R19" s="76"/>
+      <c r="S19" s="76"/>
+      <c r="T19" s="76"/>
+      <c r="U19" s="76"/>
+      <c r="V19" s="76"/>
+      <c r="W19" s="76"/>
+      <c r="X19" s="82"/>
     </row>
     <row r="20" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="84"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="62"/>
-      <c r="R20" s="62"/>
-      <c r="S20" s="62"/>
-      <c r="T20" s="62"/>
-      <c r="U20" s="62"/>
-      <c r="V20" s="62"/>
-      <c r="W20" s="62"/>
-      <c r="X20" s="81"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="77"/>
+      <c r="P20" s="77"/>
+      <c r="Q20" s="77"/>
+      <c r="R20" s="77"/>
+      <c r="S20" s="77"/>
+      <c r="T20" s="77"/>
+      <c r="U20" s="77"/>
+      <c r="V20" s="77"/>
+      <c r="W20" s="77"/>
+      <c r="X20" s="83"/>
     </row>
     <row r="21" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B21" s="25" t="s">
@@ -6064,13 +6159,13 @@
         <v>116</v>
       </c>
       <c r="J22" s="44" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K22" s="44" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L22" s="44" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="M22" s="44"/>
       <c r="N22" s="44"/>
@@ -6118,123 +6213,123 @@
       <c r="X24" s="40"/>
     </row>
     <row r="25" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="82"/>
-      <c r="C25" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="J25" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="K25" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="L25" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="M25" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="N25" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="O25" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="P25" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q25" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="R25" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="S25" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="T25" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="U25" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="V25" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="W25" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="X25" s="79" t="s">
+      <c r="B25" s="78"/>
+      <c r="C25" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="N25" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="O25" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="P25" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q25" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="R25" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="S25" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="T25" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="U25" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="V25" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="W25" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="X25" s="81" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="2:24" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="83"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="61"/>
-      <c r="N26" s="61"/>
-      <c r="O26" s="61"/>
-      <c r="P26" s="61"/>
-      <c r="Q26" s="61"/>
-      <c r="R26" s="61"/>
-      <c r="S26" s="61"/>
-      <c r="T26" s="61"/>
-      <c r="U26" s="61"/>
-      <c r="V26" s="61"/>
-      <c r="W26" s="61"/>
-      <c r="X26" s="80"/>
+      <c r="B26" s="79"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="76"/>
+      <c r="N26" s="76"/>
+      <c r="O26" s="76"/>
+      <c r="P26" s="76"/>
+      <c r="Q26" s="76"/>
+      <c r="R26" s="76"/>
+      <c r="S26" s="76"/>
+      <c r="T26" s="76"/>
+      <c r="U26" s="76"/>
+      <c r="V26" s="76"/>
+      <c r="W26" s="76"/>
+      <c r="X26" s="82"/>
     </row>
     <row r="27" spans="2:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="84"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="62"/>
-      <c r="L27" s="62"/>
-      <c r="M27" s="62"/>
-      <c r="N27" s="62"/>
-      <c r="O27" s="62"/>
-      <c r="P27" s="62"/>
-      <c r="Q27" s="62"/>
-      <c r="R27" s="62"/>
-      <c r="S27" s="62"/>
-      <c r="T27" s="62"/>
-      <c r="U27" s="62"/>
-      <c r="V27" s="62"/>
-      <c r="W27" s="62"/>
-      <c r="X27" s="81"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="77"/>
+      <c r="L27" s="77"/>
+      <c r="M27" s="77"/>
+      <c r="N27" s="77"/>
+      <c r="O27" s="77"/>
+      <c r="P27" s="77"/>
+      <c r="Q27" s="77"/>
+      <c r="R27" s="77"/>
+      <c r="S27" s="77"/>
+      <c r="T27" s="77"/>
+      <c r="U27" s="77"/>
+      <c r="V27" s="77"/>
+      <c r="W27" s="77"/>
+      <c r="X27" s="83"/>
     </row>
     <row r="28" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B28" s="25" t="s">
@@ -6326,7 +6421,7 @@
       <c r="I29" s="27"/>
       <c r="J29" s="27"/>
       <c r="K29" s="27" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L29" s="27"/>
       <c r="M29" s="27"/>
@@ -6347,6 +6442,83 @@
     <row r="32" spans="2:24" ht="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="93">
+    <mergeCell ref="W4:W6"/>
+    <mergeCell ref="W12:W14"/>
+    <mergeCell ref="W18:W20"/>
+    <mergeCell ref="W25:W27"/>
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="X12:X14"/>
+    <mergeCell ref="X18:X20"/>
+    <mergeCell ref="X25:X27"/>
+    <mergeCell ref="U4:U6"/>
+    <mergeCell ref="U12:U14"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="U25:U27"/>
+    <mergeCell ref="V4:V6"/>
+    <mergeCell ref="V12:V14"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="V25:V27"/>
+    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="S12:S14"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="S25:S27"/>
+    <mergeCell ref="T4:T6"/>
+    <mergeCell ref="T12:T14"/>
+    <mergeCell ref="T18:T20"/>
+    <mergeCell ref="T25:T27"/>
+    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="Q12:Q14"/>
+    <mergeCell ref="Q18:Q20"/>
+    <mergeCell ref="Q25:Q27"/>
+    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="R12:R14"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="R25:R27"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="O25:O27"/>
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="P25:P27"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="M25:M27"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N12:N14"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="N25:N27"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="L25:L27"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="B12:B14"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C12:C14"/>
@@ -6363,83 +6535,6 @@
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="G4:G6"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="L25:L27"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="M25:M27"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N12:N14"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="N25:N27"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="O25:O27"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="P12:P14"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="P25:P27"/>
-    <mergeCell ref="Q4:Q6"/>
-    <mergeCell ref="Q12:Q14"/>
-    <mergeCell ref="Q18:Q20"/>
-    <mergeCell ref="Q25:Q27"/>
-    <mergeCell ref="R4:R6"/>
-    <mergeCell ref="R12:R14"/>
-    <mergeCell ref="R18:R20"/>
-    <mergeCell ref="R25:R27"/>
-    <mergeCell ref="S4:S6"/>
-    <mergeCell ref="S12:S14"/>
-    <mergeCell ref="S18:S20"/>
-    <mergeCell ref="S25:S27"/>
-    <mergeCell ref="T4:T6"/>
-    <mergeCell ref="T12:T14"/>
-    <mergeCell ref="T18:T20"/>
-    <mergeCell ref="T25:T27"/>
-    <mergeCell ref="U4:U6"/>
-    <mergeCell ref="U12:U14"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="U25:U27"/>
-    <mergeCell ref="V4:V6"/>
-    <mergeCell ref="V12:V14"/>
-    <mergeCell ref="V18:V20"/>
-    <mergeCell ref="V25:V27"/>
-    <mergeCell ref="W4:W6"/>
-    <mergeCell ref="W12:W14"/>
-    <mergeCell ref="W18:W20"/>
-    <mergeCell ref="W25:W27"/>
-    <mergeCell ref="X4:X6"/>
-    <mergeCell ref="X12:X14"/>
-    <mergeCell ref="X18:X20"/>
-    <mergeCell ref="X25:X27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00.프로젝트 관리/프로젝트 계획서_250120.xlsx
+++ b/00.프로젝트 관리/프로젝트 계획서_250120.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="130">
   <si>
     <t>2차 팀프로젝트 일정표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1433,7 +1433,20 @@
   <si>
     <t>1. 피드백 사항 반영
 - html,scss,js 대문자 클래스 소문자로 변경
-- json 데이터 수정</t>
+- json 데이터 수정
+(대문자-&gt; 소문자 , 줄바꿈 스트링 입력)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문
+1.제이슨 데이터 불러오기
+-키값을 로드해서 대문자로 변환하는 방법?
+-타이틀 불러오는 방법..?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 제이슨 줄바꿈 입력 마저 진행 후에 텍스트 미디어쿼리 재정비
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2267,6 +2280,57 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2297,15 +2361,6 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2315,40 +2370,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2359,21 +2387,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3454,12 +3467,12 @@
   <sheetData>
     <row r="1" spans="2:27" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:27" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
       <c r="H2" s="20"/>
@@ -3486,60 +3499,60 @@
       </c>
     </row>
     <row r="4" spans="2:27" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="60" t="s">
+      <c r="G4" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="72" t="s">
+      <c r="H4" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="75" t="s">
+      <c r="I4" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="70">
+      <c r="J4" s="56">
         <v>45670</v>
       </c>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="71"/>
-      <c r="T4" s="71"/>
-      <c r="U4" s="71"/>
-      <c r="V4" s="71"/>
-      <c r="W4" s="71"/>
-      <c r="X4" s="71"/>
-      <c r="Y4" s="71"/>
-      <c r="Z4" s="71"/>
-      <c r="AA4" s="71"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="57"/>
+      <c r="W4" s="57"/>
+      <c r="X4" s="57"/>
+      <c r="Y4" s="57"/>
+      <c r="Z4" s="57"/>
+      <c r="AA4" s="57"/>
     </row>
     <row r="5" spans="2:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="55"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="76"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="62"/>
       <c r="J5" s="19">
         <f>J4</f>
         <v>45670</v>
@@ -3614,14 +3627,14 @@
       </c>
     </row>
     <row r="6" spans="2:27" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="56"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="77"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="63"/>
       <c r="J6" s="31">
         <f>J5</f>
         <v>45670</v>
@@ -3707,7 +3720,7 @@
       <c r="F7" s="11">
         <v>45695</v>
       </c>
-      <c r="G7" s="69" t="s">
+      <c r="G7" s="55" t="s">
         <v>76</v>
       </c>
       <c r="H7" s="22">
@@ -3752,7 +3765,7 @@
       <c r="F8" s="11">
         <v>45695</v>
       </c>
-      <c r="G8" s="67"/>
+      <c r="G8" s="53"/>
       <c r="H8" s="22">
         <f t="shared" ref="H8:H12" si="3">IF(F8="","",F8+1-E8)</f>
         <v>26</v>
@@ -3793,7 +3806,7 @@
       <c r="F9" s="11">
         <v>45695</v>
       </c>
-      <c r="G9" s="67"/>
+      <c r="G9" s="53"/>
       <c r="H9" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3834,7 +3847,7 @@
       <c r="F10" s="11">
         <v>45695</v>
       </c>
-      <c r="G10" s="67"/>
+      <c r="G10" s="53"/>
       <c r="H10" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3875,7 +3888,7 @@
       <c r="F11" s="11">
         <v>45695</v>
       </c>
-      <c r="G11" s="67"/>
+      <c r="G11" s="53"/>
       <c r="H11" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3916,7 +3929,7 @@
       <c r="F12" s="11">
         <v>45695</v>
       </c>
-      <c r="G12" s="67"/>
+      <c r="G12" s="53"/>
       <c r="H12" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3957,7 +3970,7 @@
       <c r="F13" s="11">
         <v>45695</v>
       </c>
-      <c r="G13" s="67"/>
+      <c r="G13" s="53"/>
       <c r="H13" s="22">
         <f t="shared" ref="H13:H38" si="4">IF(F13="","",F13+1-E13)</f>
         <v>26</v>
@@ -3998,7 +4011,7 @@
       <c r="F14" s="11">
         <v>45695</v>
       </c>
-      <c r="G14" s="67"/>
+      <c r="G14" s="53"/>
       <c r="H14" s="22">
         <f t="shared" si="4"/>
         <v>26</v>
@@ -4037,7 +4050,7 @@
       <c r="F15" s="11">
         <v>45695</v>
       </c>
-      <c r="G15" s="67"/>
+      <c r="G15" s="53"/>
       <c r="H15" s="22">
         <f t="shared" si="4"/>
         <v>26</v>
@@ -4076,7 +4089,7 @@
       <c r="F16" s="11">
         <v>45674</v>
       </c>
-      <c r="G16" s="66" t="s">
+      <c r="G16" s="52" t="s">
         <v>77</v>
       </c>
       <c r="H16" s="22">
@@ -4119,7 +4132,7 @@
       <c r="F17" s="11">
         <v>45674</v>
       </c>
-      <c r="G17" s="67"/>
+      <c r="G17" s="53"/>
       <c r="H17" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -4160,7 +4173,7 @@
       <c r="F18" s="11">
         <v>45674</v>
       </c>
-      <c r="G18" s="67"/>
+      <c r="G18" s="53"/>
       <c r="H18" s="22">
         <f t="shared" ref="H18:H28" si="5">IF(F18="","",F18+1-E18)</f>
         <v>5</v>
@@ -4199,7 +4212,7 @@
       <c r="F19" s="11">
         <v>45674</v>
       </c>
-      <c r="G19" s="67"/>
+      <c r="G19" s="53"/>
       <c r="H19" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4238,7 +4251,7 @@
       <c r="F20" s="11">
         <v>45674</v>
       </c>
-      <c r="G20" s="67"/>
+      <c r="G20" s="53"/>
       <c r="H20" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4277,7 +4290,7 @@
       <c r="F21" s="11">
         <v>45674</v>
       </c>
-      <c r="G21" s="67"/>
+      <c r="G21" s="53"/>
       <c r="H21" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4316,7 +4329,7 @@
       <c r="F22" s="11">
         <v>45674</v>
       </c>
-      <c r="G22" s="67"/>
+      <c r="G22" s="53"/>
       <c r="H22" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4355,7 +4368,7 @@
       <c r="F23" s="11">
         <v>45674</v>
       </c>
-      <c r="G23" s="67"/>
+      <c r="G23" s="53"/>
       <c r="H23" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4396,7 +4409,7 @@
       <c r="F24" s="11">
         <v>45674</v>
       </c>
-      <c r="G24" s="67"/>
+      <c r="G24" s="53"/>
       <c r="H24" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4437,7 +4450,7 @@
       <c r="F25" s="11">
         <v>45674</v>
       </c>
-      <c r="G25" s="67"/>
+      <c r="G25" s="53"/>
       <c r="H25" s="22">
         <f t="shared" ref="H25" si="6">IF(F25="","",F25+1-E25)</f>
         <v>5</v>
@@ -4478,7 +4491,7 @@
       <c r="F26" s="11">
         <v>45674</v>
       </c>
-      <c r="G26" s="67"/>
+      <c r="G26" s="53"/>
       <c r="H26" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4519,7 +4532,7 @@
       <c r="F27" s="11">
         <v>45674</v>
       </c>
-      <c r="G27" s="67"/>
+      <c r="G27" s="53"/>
       <c r="H27" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4560,7 +4573,7 @@
       <c r="F28" s="11">
         <v>45678</v>
       </c>
-      <c r="G28" s="67"/>
+      <c r="G28" s="53"/>
       <c r="H28" s="22">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -4599,7 +4612,7 @@
       <c r="F29" s="11">
         <v>45678</v>
       </c>
-      <c r="G29" s="67"/>
+      <c r="G29" s="53"/>
       <c r="H29" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -4640,7 +4653,7 @@
       <c r="F30" s="11">
         <v>45678</v>
       </c>
-      <c r="G30" s="67"/>
+      <c r="G30" s="53"/>
       <c r="H30" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -4681,7 +4694,7 @@
       <c r="F31" s="11">
         <v>45680</v>
       </c>
-      <c r="G31" s="67"/>
+      <c r="G31" s="53"/>
       <c r="H31" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -4722,7 +4735,7 @@
       <c r="F32" s="11">
         <v>45680</v>
       </c>
-      <c r="G32" s="67"/>
+      <c r="G32" s="53"/>
       <c r="H32" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -4763,7 +4776,7 @@
       <c r="F33" s="11">
         <v>45684</v>
       </c>
-      <c r="G33" s="67"/>
+      <c r="G33" s="53"/>
       <c r="H33" s="22">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -4804,7 +4817,7 @@
       <c r="F34" s="11">
         <v>45684</v>
       </c>
-      <c r="G34" s="68"/>
+      <c r="G34" s="54"/>
       <c r="H34" s="22">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -4991,18 +5004,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="D4:D6"/>
     <mergeCell ref="G16:G34"/>
     <mergeCell ref="G7:G15"/>
     <mergeCell ref="J4:AA4"/>
     <mergeCell ref="H4:H6"/>
     <mergeCell ref="I4:I6"/>
     <mergeCell ref="G4:G6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="D4:D6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J5:AA38">
@@ -5364,9 +5377,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P8" sqref="P8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5381,22 +5394,23 @@
     <col min="9" max="9" width="53.375" customWidth="1"/>
     <col min="10" max="11" width="48.75" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="50.75" customWidth="1"/>
-    <col min="13" max="23" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="48.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="23" width="27.125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="27.125" style="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:24" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
     </row>
     <row r="3" spans="1:24" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="14"/>
@@ -5419,126 +5433,126 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="17.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="78"/>
-      <c r="C4" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q4" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="R4" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="S4" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="T4" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="U4" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="V4" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="W4" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="X4" s="81" t="s">
+      <c r="B4" s="83"/>
+      <c r="C4" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="T4" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="U4" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="V4" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="W4" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="X4" s="80" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="79"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
-      <c r="W5" s="76"/>
-      <c r="X5" s="82"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="62"/>
+      <c r="T5" s="62"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
+      <c r="W5" s="62"/>
+      <c r="X5" s="81"/>
     </row>
     <row r="6" spans="1:24" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="77"/>
-      <c r="N6" s="77"/>
-      <c r="O6" s="77"/>
-      <c r="P6" s="77"/>
-      <c r="Q6" s="77"/>
-      <c r="R6" s="77"/>
-      <c r="S6" s="77"/>
-      <c r="T6" s="77"/>
-      <c r="U6" s="77"/>
-      <c r="V6" s="77"/>
-      <c r="W6" s="77"/>
-      <c r="X6" s="83"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="63"/>
+      <c r="S6" s="63"/>
+      <c r="T6" s="63"/>
+      <c r="U6" s="63"/>
+      <c r="V6" s="63"/>
+      <c r="W6" s="63"/>
+      <c r="X6" s="82"/>
     </row>
     <row r="7" spans="1:24" ht="27" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
@@ -5714,123 +5728,123 @@
       <c r="X11" s="40"/>
     </row>
     <row r="12" spans="1:24" s="12" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="78"/>
-      <c r="C12" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="N12" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="O12" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="P12" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q12" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="R12" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="S12" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="T12" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="U12" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="V12" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="W12" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="X12" s="81" t="s">
+      <c r="B12" s="83"/>
+      <c r="C12" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="P12" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q12" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="R12" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="S12" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="T12" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="U12" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="V12" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="W12" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="X12" s="80" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:24" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="79"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="76"/>
-      <c r="L13" s="76"/>
-      <c r="M13" s="76"/>
-      <c r="N13" s="76"/>
-      <c r="O13" s="76"/>
-      <c r="P13" s="76"/>
-      <c r="Q13" s="76"/>
-      <c r="R13" s="76"/>
-      <c r="S13" s="76"/>
-      <c r="T13" s="76"/>
-      <c r="U13" s="76"/>
-      <c r="V13" s="76"/>
-      <c r="W13" s="76"/>
-      <c r="X13" s="82"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="62"/>
+      <c r="Q13" s="62"/>
+      <c r="R13" s="62"/>
+      <c r="S13" s="62"/>
+      <c r="T13" s="62"/>
+      <c r="U13" s="62"/>
+      <c r="V13" s="62"/>
+      <c r="W13" s="62"/>
+      <c r="X13" s="81"/>
     </row>
     <row r="14" spans="1:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="80"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="77"/>
-      <c r="N14" s="77"/>
-      <c r="O14" s="77"/>
-      <c r="P14" s="77"/>
-      <c r="Q14" s="77"/>
-      <c r="R14" s="77"/>
-      <c r="S14" s="77"/>
-      <c r="T14" s="77"/>
-      <c r="U14" s="77"/>
-      <c r="V14" s="77"/>
-      <c r="W14" s="77"/>
-      <c r="X14" s="83"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="63"/>
+      <c r="S14" s="63"/>
+      <c r="T14" s="63"/>
+      <c r="U14" s="63"/>
+      <c r="V14" s="63"/>
+      <c r="W14" s="63"/>
+      <c r="X14" s="82"/>
     </row>
     <row r="15" spans="1:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B15" s="25" t="s">
@@ -5911,7 +5925,7 @@
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="85" t="s">
+      <c r="G16" s="51" t="s">
         <v>106</v>
       </c>
       <c r="H16" s="48" t="s">
@@ -5923,13 +5937,15 @@
       <c r="J16" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="K16" s="85" t="s">
+      <c r="K16" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="L16" s="84" t="s">
+      <c r="L16" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="M16" s="24"/>
+      <c r="M16" s="24" t="s">
+        <v>128</v>
+      </c>
       <c r="N16" s="24"/>
       <c r="O16" s="24"/>
       <c r="P16" s="24"/>
@@ -5946,123 +5962,123 @@
       <c r="X17" s="40"/>
     </row>
     <row r="18" spans="2:24" s="12" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="78"/>
-      <c r="C18" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="J18" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="M18" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="N18" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="O18" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="P18" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q18" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="R18" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="S18" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="T18" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="U18" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="V18" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="W18" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="X18" s="81" t="s">
+      <c r="B18" s="83"/>
+      <c r="C18" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="N18" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="O18" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="P18" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q18" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="R18" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="S18" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="T18" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="U18" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="V18" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="W18" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="X18" s="80" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="79"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="76"/>
-      <c r="L19" s="76"/>
-      <c r="M19" s="76"/>
-      <c r="N19" s="76"/>
-      <c r="O19" s="76"/>
-      <c r="P19" s="76"/>
-      <c r="Q19" s="76"/>
-      <c r="R19" s="76"/>
-      <c r="S19" s="76"/>
-      <c r="T19" s="76"/>
-      <c r="U19" s="76"/>
-      <c r="V19" s="76"/>
-      <c r="W19" s="76"/>
-      <c r="X19" s="82"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="62"/>
+      <c r="Q19" s="62"/>
+      <c r="R19" s="62"/>
+      <c r="S19" s="62"/>
+      <c r="T19" s="62"/>
+      <c r="U19" s="62"/>
+      <c r="V19" s="62"/>
+      <c r="W19" s="62"/>
+      <c r="X19" s="81"/>
     </row>
     <row r="20" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="80"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="77"/>
-      <c r="O20" s="77"/>
-      <c r="P20" s="77"/>
-      <c r="Q20" s="77"/>
-      <c r="R20" s="77"/>
-      <c r="S20" s="77"/>
-      <c r="T20" s="77"/>
-      <c r="U20" s="77"/>
-      <c r="V20" s="77"/>
-      <c r="W20" s="77"/>
-      <c r="X20" s="83"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="63"/>
+      <c r="M20" s="63"/>
+      <c r="N20" s="63"/>
+      <c r="O20" s="63"/>
+      <c r="P20" s="63"/>
+      <c r="Q20" s="63"/>
+      <c r="R20" s="63"/>
+      <c r="S20" s="63"/>
+      <c r="T20" s="63"/>
+      <c r="U20" s="63"/>
+      <c r="V20" s="63"/>
+      <c r="W20" s="63"/>
+      <c r="X20" s="82"/>
     </row>
     <row r="21" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B21" s="25" t="s">
@@ -6167,7 +6183,9 @@
       <c r="L22" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="M22" s="44"/>
+      <c r="M22" s="44" t="s">
+        <v>129</v>
+      </c>
       <c r="N22" s="44"/>
       <c r="O22" s="44"/>
       <c r="P22" s="44"/>
@@ -6213,123 +6231,123 @@
       <c r="X24" s="40"/>
     </row>
     <row r="25" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="78"/>
-      <c r="C25" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="J25" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="K25" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="L25" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="M25" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="N25" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="O25" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="P25" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q25" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="R25" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="S25" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="T25" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="U25" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="V25" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="W25" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="X25" s="81" t="s">
+      <c r="B25" s="83"/>
+      <c r="C25" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="N25" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="O25" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="P25" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q25" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="R25" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="S25" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="T25" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="U25" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="V25" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="W25" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="X25" s="80" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="2:24" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="79"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="76"/>
-      <c r="M26" s="76"/>
-      <c r="N26" s="76"/>
-      <c r="O26" s="76"/>
-      <c r="P26" s="76"/>
-      <c r="Q26" s="76"/>
-      <c r="R26" s="76"/>
-      <c r="S26" s="76"/>
-      <c r="T26" s="76"/>
-      <c r="U26" s="76"/>
-      <c r="V26" s="76"/>
-      <c r="W26" s="76"/>
-      <c r="X26" s="82"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="62"/>
+      <c r="M26" s="62"/>
+      <c r="N26" s="62"/>
+      <c r="O26" s="62"/>
+      <c r="P26" s="62"/>
+      <c r="Q26" s="62"/>
+      <c r="R26" s="62"/>
+      <c r="S26" s="62"/>
+      <c r="T26" s="62"/>
+      <c r="U26" s="62"/>
+      <c r="V26" s="62"/>
+      <c r="W26" s="62"/>
+      <c r="X26" s="81"/>
     </row>
     <row r="27" spans="2:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="80"/>
-      <c r="C27" s="77"/>
-      <c r="D27" s="77"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="77"/>
-      <c r="L27" s="77"/>
-      <c r="M27" s="77"/>
-      <c r="N27" s="77"/>
-      <c r="O27" s="77"/>
-      <c r="P27" s="77"/>
-      <c r="Q27" s="77"/>
-      <c r="R27" s="77"/>
-      <c r="S27" s="77"/>
-      <c r="T27" s="77"/>
-      <c r="U27" s="77"/>
-      <c r="V27" s="77"/>
-      <c r="W27" s="77"/>
-      <c r="X27" s="83"/>
+      <c r="B27" s="85"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="63"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="63"/>
+      <c r="P27" s="63"/>
+      <c r="Q27" s="63"/>
+      <c r="R27" s="63"/>
+      <c r="S27" s="63"/>
+      <c r="T27" s="63"/>
+      <c r="U27" s="63"/>
+      <c r="V27" s="63"/>
+      <c r="W27" s="63"/>
+      <c r="X27" s="82"/>
     </row>
     <row r="28" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B28" s="25" t="s">
@@ -6442,83 +6460,6 @@
     <row r="32" spans="2:24" ht="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="W4:W6"/>
-    <mergeCell ref="W12:W14"/>
-    <mergeCell ref="W18:W20"/>
-    <mergeCell ref="W25:W27"/>
-    <mergeCell ref="X4:X6"/>
-    <mergeCell ref="X12:X14"/>
-    <mergeCell ref="X18:X20"/>
-    <mergeCell ref="X25:X27"/>
-    <mergeCell ref="U4:U6"/>
-    <mergeCell ref="U12:U14"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="U25:U27"/>
-    <mergeCell ref="V4:V6"/>
-    <mergeCell ref="V12:V14"/>
-    <mergeCell ref="V18:V20"/>
-    <mergeCell ref="V25:V27"/>
-    <mergeCell ref="S4:S6"/>
-    <mergeCell ref="S12:S14"/>
-    <mergeCell ref="S18:S20"/>
-    <mergeCell ref="S25:S27"/>
-    <mergeCell ref="T4:T6"/>
-    <mergeCell ref="T12:T14"/>
-    <mergeCell ref="T18:T20"/>
-    <mergeCell ref="T25:T27"/>
-    <mergeCell ref="Q4:Q6"/>
-    <mergeCell ref="Q12:Q14"/>
-    <mergeCell ref="Q18:Q20"/>
-    <mergeCell ref="Q25:Q27"/>
-    <mergeCell ref="R4:R6"/>
-    <mergeCell ref="R12:R14"/>
-    <mergeCell ref="R18:R20"/>
-    <mergeCell ref="R25:R27"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="O25:O27"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="P12:P14"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="P25:P27"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="M25:M27"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N12:N14"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="N25:N27"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="L25:L27"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="B12:B14"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C12:C14"/>
@@ -6535,6 +6476,83 @@
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="G4:G6"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="L25:L27"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="M25:M27"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N12:N14"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="N25:N27"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="O25:O27"/>
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="P25:P27"/>
+    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="Q12:Q14"/>
+    <mergeCell ref="Q18:Q20"/>
+    <mergeCell ref="Q25:Q27"/>
+    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="R12:R14"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="R25:R27"/>
+    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="S12:S14"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="S25:S27"/>
+    <mergeCell ref="T4:T6"/>
+    <mergeCell ref="T12:T14"/>
+    <mergeCell ref="T18:T20"/>
+    <mergeCell ref="T25:T27"/>
+    <mergeCell ref="U4:U6"/>
+    <mergeCell ref="U12:U14"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="U25:U27"/>
+    <mergeCell ref="V4:V6"/>
+    <mergeCell ref="V12:V14"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="V25:V27"/>
+    <mergeCell ref="W4:W6"/>
+    <mergeCell ref="W12:W14"/>
+    <mergeCell ref="W18:W20"/>
+    <mergeCell ref="W25:W27"/>
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="X12:X14"/>
+    <mergeCell ref="X18:X20"/>
+    <mergeCell ref="X25:X27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
